--- a/sict/contest/jungyounghun/template.xlsx
+++ b/sict/contest/jungyounghun/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_sict_svn\대회과제-정영훈-당근마켓(Studio-v_22.10.3)\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\contest\jungyounghun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43562CF-8FB4-497C-A155-30E960AE560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBB61C7-A345-46E5-9974-0584A2A5354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="37740" windowHeight="16530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -318,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,27 +627,27 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="105" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="5"/>
+    <col min="11" max="11" width="12.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="13" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
       </c>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -699,7 +699,7 @@
       </c>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="3"/>
       <c r="B4" s="10"/>
       <c r="C4" s="3"/>
@@ -725,7 +725,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="3"/>
       <c r="B5" s="10"/>
       <c r="C5" s="3"/>
